--- a/201-8 (W25)/grades/Robinson, Grace.xlsx
+++ b/201-8 (W25)/grades/Robinson, Grace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlatza\Documents\winter2025\201-8 (W25)\grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D25B4-630D-4F3E-B6DE-7634F63FE808}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8141655A-412A-4599-AD2E-5D539BD82CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" firstSheet="1" activeTab="1" xr2:uid="{380839EA-A048-45B5-9384-B1EC17772E6F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{380839EA-A048-45B5-9384-B1EC17772E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz 1-30-25" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
   <si>
     <t>PH201-8 quiz 1</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>q-value</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -311,17 +317,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -507,7 +502,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -523,7 +518,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -537,71 +532,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -664,36 +594,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -712,6 +612,142 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -719,185 +755,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1214,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964C4774-8121-4B0E-85A4-DEE73D585D3B}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1481,23 +1533,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1506,58 +1558,66 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1565,22 +1625,24 @@
       <c r="E7" s="12">
         <v>3</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13">
+        <v>3</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="68" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="15">
         <v>1</v>
       </c>
@@ -1589,15 +1651,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="69"/>
+      <c r="B9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="17">
         <v>2</v>
       </c>
@@ -1606,13 +1668,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44" t="s">
+    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="69"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="19">
         <v>4</v>
       </c>
@@ -1622,161 +1684,209 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="17">
         <v>4</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44" t="s">
+    <row r="12" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="69"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="19">
         <v>1</v>
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="69"/>
+      <c r="B13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="17">
         <v>2</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44" t="s">
+    <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="69"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="17">
         <v>4</v>
       </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="33"/>
+      <c r="F15" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="69"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="43"/>
       <c r="E16" s="21">
         <v>1</v>
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="69"/>
+      <c r="B17" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="23">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="30">
         <f>SUM(E3:E16)</f>
         <v>30</v>
       </c>
-      <c r="F17" s="24">
-        <f>SUM(F3:F16)</f>
-        <v>0</v>
+      <c r="F17" s="31">
+        <f>SUM(F3:F16,F18:F21)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="32">
+        <v>2</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="69"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="69"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="32">
+        <v>4</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="70"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="25" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="29">
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:B7"/>
@@ -1784,22 +1894,21 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A8:A16"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1809,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628D9309-0CCB-493E-AD9E-93711F161D87}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1821,678 +1930,678 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="72">
+      <c r="B4" s="75"/>
+      <c r="C4" s="29">
         <v>3</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="72">
+      <c r="B5" s="75"/>
+      <c r="C5" s="29">
         <v>6</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="72">
-        <v>4</v>
-      </c>
-      <c r="D6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="29">
+        <v>4</v>
+      </c>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="72">
+      <c r="B7" s="75"/>
+      <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="72">
+      <c r="B8" s="75"/>
+      <c r="C8" s="29">
         <v>3</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="72">
-        <v>4</v>
-      </c>
-      <c r="D9" s="72"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="29">
+        <v>4</v>
+      </c>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="70"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="D11" s="72"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="70"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="72">
-        <v>4</v>
-      </c>
-      <c r="D12" s="72"/>
+      <c r="C12" s="29">
+        <v>4</v>
+      </c>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="70"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="72">
-        <v>4</v>
-      </c>
-      <c r="D13" s="72"/>
+      <c r="C13" s="29">
+        <v>4</v>
+      </c>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="70"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="29">
         <v>1</v>
       </c>
-      <c r="D14" s="72"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="70"/>
-      <c r="B16" s="72" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="29">
         <v>2</v>
       </c>
-      <c r="D16" s="72"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="70"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="72">
-        <v>4</v>
-      </c>
-      <c r="D17" s="72"/>
+      <c r="C17" s="29">
+        <v>4</v>
+      </c>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="70"/>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="72">
-        <v>4</v>
-      </c>
-      <c r="D18" s="72"/>
+      <c r="C18" s="29">
+        <v>4</v>
+      </c>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="72">
+      <c r="B20" s="75"/>
+      <c r="C20" s="29">
         <v>2</v>
       </c>
-      <c r="D20" s="72"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="29">
         <v>45</v>
       </c>
-      <c r="D21" s="72"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="72">
+      <c r="B23" s="75"/>
+      <c r="C23" s="29">
         <v>1</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="72">
+      <c r="B24" s="75"/>
+      <c r="C24" s="29">
         <v>3</v>
       </c>
-      <c r="D24" s="72"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="72">
+      <c r="B25" s="75"/>
+      <c r="C25" s="29">
         <v>6</v>
       </c>
-      <c r="D25" s="72"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="72">
-        <v>4</v>
-      </c>
-      <c r="D26" s="72"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="29">
+        <v>4</v>
+      </c>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="72">
+      <c r="B27" s="75"/>
+      <c r="C27" s="29">
         <v>1</v>
       </c>
-      <c r="D27" s="72"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="72">
+      <c r="B28" s="75"/>
+      <c r="C28" s="29">
         <v>3</v>
       </c>
-      <c r="D28" s="72"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="72">
-        <v>4</v>
-      </c>
-      <c r="D29" s="72"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="70"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="29">
         <v>2</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="70"/>
-      <c r="B31" s="72" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="72">
-        <v>4</v>
-      </c>
-      <c r="D31" s="72"/>
+      <c r="C31" s="29">
+        <v>4</v>
+      </c>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="70"/>
-      <c r="B32" s="72" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="72">
-        <v>4</v>
-      </c>
-      <c r="D32" s="72"/>
+      <c r="C32" s="29">
+        <v>4</v>
+      </c>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="70"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="29">
         <v>1</v>
       </c>
-      <c r="D33" s="72"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="70"/>
-      <c r="B35" s="72" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="29">
         <v>2</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="70"/>
-      <c r="B36" s="72" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="72">
-        <v>4</v>
-      </c>
-      <c r="D36" s="72"/>
+      <c r="C36" s="29">
+        <v>4</v>
+      </c>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="70"/>
-      <c r="B37" s="72" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="72">
-        <v>4</v>
-      </c>
-      <c r="D37" s="72"/>
+      <c r="C37" s="29">
+        <v>4</v>
+      </c>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="70"/>
-      <c r="B38" s="72" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="29">
         <v>1</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="70"/>
-      <c r="B40" s="72" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="29">
         <v>2</v>
       </c>
-      <c r="D40" s="72"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="70"/>
-      <c r="B41" s="72" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="72">
-        <v>4</v>
-      </c>
-      <c r="D41" s="72"/>
+      <c r="C41" s="29">
+        <v>4</v>
+      </c>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="70"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="72">
-        <v>4</v>
-      </c>
-      <c r="D42" s="72"/>
+      <c r="C42" s="29">
+        <v>4</v>
+      </c>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="70"/>
-      <c r="B43" s="72" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="29">
         <v>1</v>
       </c>
-      <c r="D43" s="72"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="72">
+      <c r="B44" s="75"/>
+      <c r="C44" s="29">
         <v>5</v>
       </c>
-      <c r="D44" s="72"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="70"/>
-      <c r="B45" s="72" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="29">
         <v>60</v>
       </c>
-      <c r="D45" s="72"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="67"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="78"/>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="72">
+      <c r="B47" s="75"/>
+      <c r="C47" s="29">
         <v>1</v>
       </c>
-      <c r="D47" s="72"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="72">
+      <c r="B48" s="75"/>
+      <c r="C48" s="29">
         <v>3</v>
       </c>
-      <c r="D48" s="72"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="72">
+      <c r="B49" s="75"/>
+      <c r="C49" s="29">
         <v>6</v>
       </c>
-      <c r="D49" s="72"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="72">
-        <v>4</v>
-      </c>
-      <c r="D50" s="72"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="29">
+        <v>4</v>
+      </c>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="72">
+      <c r="B51" s="75"/>
+      <c r="C51" s="29">
         <v>1</v>
       </c>
-      <c r="D51" s="72"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="72">
+      <c r="B52" s="75"/>
+      <c r="C52" s="29">
         <v>3</v>
       </c>
-      <c r="D52" s="72"/>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="72">
-        <v>4</v>
-      </c>
-      <c r="D53" s="72"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="29">
+        <v>4</v>
+      </c>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="70"/>
-      <c r="B54" s="72" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="72">
+      <c r="C54" s="29">
         <v>2</v>
       </c>
-      <c r="D54" s="72"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="70"/>
-      <c r="B55" s="72" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="72">
-        <v>4</v>
-      </c>
-      <c r="D55" s="72"/>
+      <c r="C55" s="29">
+        <v>4</v>
+      </c>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="70"/>
-      <c r="B56" s="72" t="s">
+      <c r="A56" s="27"/>
+      <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="72">
-        <v>4</v>
-      </c>
-      <c r="D56" s="72"/>
+      <c r="C56" s="29">
+        <v>4</v>
+      </c>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="70"/>
-      <c r="B57" s="72" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="72">
+      <c r="C57" s="29">
         <v>1</v>
       </c>
-      <c r="D57" s="72"/>
+      <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="70"/>
-      <c r="B59" s="72" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="72">
+      <c r="C59" s="29">
         <v>2</v>
       </c>
-      <c r="D59" s="72"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="70"/>
-      <c r="B60" s="72" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="72">
-        <v>4</v>
-      </c>
-      <c r="D60" s="72"/>
+      <c r="C60" s="29">
+        <v>4</v>
+      </c>
+      <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="70"/>
-      <c r="B61" s="72" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="72">
-        <v>4</v>
-      </c>
-      <c r="D61" s="72"/>
+      <c r="C61" s="29">
+        <v>4</v>
+      </c>
+      <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="70"/>
-      <c r="B62" s="72" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="72">
+      <c r="C62" s="29">
         <v>1</v>
       </c>
-      <c r="D62" s="72"/>
+      <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="70"/>
-      <c r="B64" s="72" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="72">
+      <c r="C64" s="29">
         <v>2</v>
       </c>
-      <c r="D64" s="72"/>
+      <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="70"/>
-      <c r="B65" s="72" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="72">
-        <v>4</v>
-      </c>
-      <c r="D65" s="72"/>
+      <c r="C65" s="29">
+        <v>4</v>
+      </c>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="70"/>
-      <c r="B66" s="72" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="72">
-        <v>4</v>
-      </c>
-      <c r="D66" s="72"/>
+      <c r="C66" s="29">
+        <v>4</v>
+      </c>
+      <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="70"/>
-      <c r="B67" s="72" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="72">
+      <c r="C67" s="29">
         <v>1</v>
       </c>
-      <c r="D67" s="72"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="66"/>
-      <c r="C68" s="72">
+      <c r="B68" s="75"/>
+      <c r="C68" s="29">
         <v>5</v>
       </c>
-      <c r="D68" s="72"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="70"/>
-      <c r="B69" s="72" t="s">
+      <c r="A69" s="27"/>
+      <c r="B69" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="72">
+      <c r="C69" s="29">
         <v>60</v>
       </c>
-      <c r="D69" s="72"/>
+      <c r="D69" s="29"/>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="72">
+      <c r="B70" s="75"/>
+      <c r="C70" s="29">
         <v>185</v>
       </c>
-      <c r="D70" s="72"/>
+      <c r="D70" s="29"/>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="65"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
+      <c r="A71" s="74"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -2501,6 +2610,7 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -2508,29 +2618,28 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
